--- a/Pre-Entregas/Hardware/Relevamiento_TPI.xlsx
+++ b/Pre-Entregas/Hardware/Relevamiento_TPI.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
-    <t>RELEVAMIENTO 3 PC´S</t>
+    <t>PRESUPUESTO 3 PC´S</t>
   </si>
   <si>
     <t>Hecho por:</t>
@@ -44,22 +44,28 @@
     <t>17/08/2024</t>
   </si>
   <si>
+    <t>Gabinete</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>CORSAIR</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Airflow 275R</t>
+  </si>
+  <si>
     <t>PERIFERICOS</t>
   </si>
   <si>
-    <t>Gabinete</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>CORSAIR</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Airflow 275R</t>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>CORSAIRAirflow</t>
   </si>
   <si>
     <t>Monitor</t>
@@ -71,10 +77,7 @@
     <t>29WQ600-W</t>
   </si>
   <si>
-    <t>LINK</t>
-  </si>
-  <si>
-    <t>https://www.mercadolibre.com.ar/gabinete-corsair-airflow-275r/p/MLA24541265?offer_type=BEST_PRICE</t>
+    <t>Precio</t>
   </si>
   <si>
     <t>Resolución</t>
@@ -89,18 +92,15 @@
     <t>USB Type-C/DisplayPort</t>
   </si>
   <si>
-    <t>Precio</t>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>CV650</t>
   </si>
   <si>
     <t>https://www.mercadolibre.com.ar/monitor-ultrapanoramico-219-lg-29wq600-w-ultrawide-panel-ips-2560x1080-color-blanco/p/MLA24473343?offer_type=BEST_PRICE</t>
   </si>
   <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>CV650</t>
-  </si>
-  <si>
     <t>Potencia</t>
   </si>
   <si>
@@ -113,6 +113,9 @@
     <t>100v/240V</t>
   </si>
   <si>
+    <t>https://www.mercadolibre.com.ar/fuente-de-alimentacion-para-pc-corsair-cv-series-cv650-650w-black-100v240v/p/MLA15733818#polycard_client=search-nordic&amp;searchVariation=MLA15733818&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=36c62a2b-6974-4cc4-a3d2-ac4c8c1b8bad&amp;wid=MLA1103574338&amp;sid=search</t>
+  </si>
+  <si>
     <t>Teclado</t>
   </si>
   <si>
@@ -122,9 +125,6 @@
     <t>K120</t>
   </si>
   <si>
-    <t>https://www.mercadolibre.com.ar/fuente-de-alimentacion-para-pc-corsair-cv-series-cv650-650w-black-100v240v/p/MLA15733818#polycard_client=search-nordic&amp;searchVariation=MLA15733818&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=36c62a2b-6974-4cc4-a3d2-ac4c8c1b8bad&amp;wid=MLA1103574338&amp;sid=search</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -134,18 +134,18 @@
     <t>USB</t>
   </si>
   <si>
+    <t>Disco rígido</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>SA400S37</t>
+  </si>
+  <si>
     <t>https://articulo.mercadolibre.com.ar/MLA-744653179-teclado-logitech-k120-usb-espanol-resistente-antiderrames-_JM?searchVariation=46251447439#polycard_client=search-nordic&amp;searchVariation=46251447439&amp;position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=d7a5eab9-f74c-45d9-a232-5750c9d42bba</t>
   </si>
   <si>
-    <t>Disco rígido</t>
-  </si>
-  <si>
-    <t>Kingston</t>
-  </si>
-  <si>
-    <t>SA400S37</t>
-  </si>
-  <si>
     <t>Capacidad</t>
   </si>
   <si>
@@ -155,25 +155,25 @@
     <t>SSD</t>
   </si>
   <si>
+    <t>Observaciónes</t>
+  </si>
+  <si>
+    <t>velocidades: 500MB/s y 450MB/s</t>
+  </si>
+  <si>
+    <t>SATA</t>
+  </si>
+  <si>
     <t>Mouse</t>
   </si>
   <si>
     <t>M110</t>
   </si>
   <si>
-    <t>Observaciónes</t>
-  </si>
-  <si>
-    <t>velocidades: 500MB/s y 450MB/s</t>
-  </si>
-  <si>
-    <t>SATA</t>
+    <t>https://www.mercadolibre.com.ar/disco-solido-interno-kingston-sa400s37960g-sata-960gb-negro/p/MLA26810824?offer_type=BEST_PRICE</t>
   </si>
   <si>
     <t>Convencional</t>
-  </si>
-  <si>
-    <t>https://www.mercadolibre.com.ar/disco-solido-interno-kingston-sa400s37960g-sata-960gb-negro/p/MLA26810824?offer_type=BEST_PRICE</t>
   </si>
   <si>
     <t>https://www.mercadolibre.com.ar/mouse-logitech-m110-azul/p/MLA19079405#polycard_client=search-nordic&amp;searchVariation=MLA19079405&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=80f03902-1790-411a-9e83-51865ce540c2&amp;wid=MLA1375584401&amp;sid=search</t>
@@ -295,7 +295,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +303,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,25 +452,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,12 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5959"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,10 +943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1092,37 +1092,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1131,61 +1128,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1215,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,7 +1230,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,8 +1565,8 @@
   <sheetPr/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1613,434 +1613,434 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="52"/>
       <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16">
+        <v>174999</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17">
-        <v>174999</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="22">
-        <v>356447</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="23">
+        <v>356447</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="23" t="s">
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="A10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="25">
         <v>125813</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="K10" s="54"/>
       <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="22">
-        <v>11459</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="54"/>
       <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="23">
+        <v>11459</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="23" t="s">
+      <c r="B13" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="15" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="F13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="G13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="K14" s="54"/>
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="33">
+      <c r="A15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="32">
         <v>87824</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="34">
-        <v>7399.99</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="54"/>
       <c r="L15" s="54"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="F16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="36">
+        <v>7399.99</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19" s="38">
         <v>328700</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
-        <v>20</v>
+      <c r="A23" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="39">
         <v>266309</v>
@@ -2050,28 +2050,28 @@
       <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="42" t="s">
@@ -2083,61 +2083,61 @@
       <c r="F25" s="44"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="15" t="s">
-        <v>44</v>
+      <c r="A26" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="46"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="24">
+      <c r="A28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="25">
         <v>77909</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="44"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="23" t="s">
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F29" s="1"/>
@@ -2147,42 +2147,42 @@
       <c r="A30" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="16" t="s">
-        <v>20</v>
+      <c r="A32" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B32" s="49">
         <v>212701.28</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
@@ -2194,7 +2194,7 @@
       <c r="A34" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="3"/>
@@ -2204,7 +2204,7 @@
       <c r="A35" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F35" s="1"/>
@@ -2221,20 +2221,20 @@
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -2256,7 +2256,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56d417c2-f033-46e2-9881-048596ec3893}</x14:id>
+          <x14:id>{345fcf09-8140-476d-9799-e9c7e778a61e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2266,12 +2266,12 @@
     <hyperlink ref="B18" r:id="rId2" display="https://articulo.mercadolibre.com.ar/MLA-1393719722-motherboard-asus-tuf-gaming-b660-plus-wifi-ddr4-intel-12va--_JM?searchVariation=177675461607#polycard_client=search-nordic&amp;searchVariation=177675461607&amp;position=21&amp;search_layout=grid&amp;type=item&amp;tracking_id=0960b3bf-584e-448e-9615-70bc8c20f586" tooltip="https://articulo.mercadolibre.com.ar/MLA-1393719722-motherboard-asus-tuf-gaming-b660-plus-wifi-ddr4-intel-12va--_JM?searchVariation=177675461607#polycard_client=search-nordic&amp;searchVariation=177675461607&amp;position=21&amp;search_layout=grid&amp;type=item&amp;tracking_i"/>
     <hyperlink ref="B27" r:id="rId3" display="https://www.mercadolibre.com.ar/memoria-ram-corsair-vengeance-lpx-ddr4-16gb-2x8-3200mhz-c16/p/MLA22251726#polycard_client=search-nordic&amp;searchVariation=MLA22251726&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=c3fcfacd-79c1-4092-a7ef-9c18e70dddbf&amp;wid=MLA1744154568&amp;sid=search"/>
     <hyperlink ref="B14" r:id="rId4" display="https://www.mercadolibre.com.ar/disco-solido-interno-kingston-sa400s37960g-sata-960gb-negro/p/MLA26810824?offer_type=BEST_PRICE"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.mercadolibre.com.ar/gabinete-corsair-airflow-275r/p/MLA24541265?offer_type=BEST_PRICE"/>
+    <hyperlink ref="B5" r:id="rId5" display="CORSAIRAirflow"/>
     <hyperlink ref="B9" r:id="rId6" display="https://www.mercadolibre.com.ar/fuente-de-alimentacion-para-pc-corsair-cv-series-cv650-650w-black-100v240v/p/MLA15733818#polycard_client=search-nordic&amp;searchVariation=MLA15733818&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=36c62a2b-6974-4cc4-a3d2-ac4c8c1b8bad&amp;wid=MLA1103574338&amp;sid=search"/>
     <hyperlink ref="B31" r:id="rId7" display="https://www.mercadolibre.com.ar/placa-de-video-nvidia-msi-ventus-xs-geforce-gtx-1650-d6-ventus-xs-oc-oc-edition-4gb/p/MLA15995697?offer_type=BEST_PRICE"/>
-    <hyperlink ref="G6" r:id="rId8" display="https://www.mercadolibre.com.ar/monitor-ultrapanoramico-219-lg-29wq600-w-ultrawide-panel-ips-2560x1080-color-blanco/p/MLA24473343?offer_type=BEST_PRICE"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://articulo.mercadolibre.com.ar/MLA-744653179-teclado-logitech-k120-usb-espanol-resistente-antiderrames-_JM?searchVariation=46251447439#polycard_client=search-nordic&amp;searchVariation=46251447439&amp;position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=d7a5eab9-f74c-45d9-a232-5750c9d42bba"/>
-    <hyperlink ref="G14" r:id="rId10" display="https://www.mercadolibre.com.ar/mouse-logitech-m110-azul/p/MLA19079405#polycard_client=search-nordic&amp;searchVariation=MLA19079405&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=80f03902-1790-411a-9e83-51865ce540c2&amp;wid=MLA1375584401&amp;sid=search"/>
+    <hyperlink ref="G7" r:id="rId8" display="https://www.mercadolibre.com.ar/monitor-ultrapanoramico-219-lg-29wq600-w-ultrawide-panel-ips-2560x1080-color-blanco/p/MLA24473343?offer_type=BEST_PRICE"/>
+    <hyperlink ref="G11" r:id="rId9" display="https://articulo.mercadolibre.com.ar/MLA-744653179-teclado-logitech-k120-usb-espanol-resistente-antiderrames-_JM?searchVariation=46251447439#polycard_client=search-nordic&amp;searchVariation=46251447439&amp;position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=d7a5eab9-f74c-45d9-a232-5750c9d42bba"/>
+    <hyperlink ref="G15" r:id="rId10" display="https://www.mercadolibre.com.ar/mouse-logitech-m110-azul/p/MLA19079405#polycard_client=search-nordic&amp;searchVariation=MLA19079405&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=80f03902-1790-411a-9e83-51865ce540c2&amp;wid=MLA1375584401&amp;sid=search"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2280,7 +2280,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{56d417c2-f033-46e2-9881-048596ec3893}">
+          <x14:cfRule type="dataBar" id="{345fcf09-8140-476d-9799-e9c7e778a61e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
